--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\Fall2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\Fall2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D6345E-190D-496F-AE26-2EA746535B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB5D69-D239-486F-9D98-0F91DD07695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="710" windowWidth="16580" windowHeight="9260" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
   </bookViews>
@@ -20,12 +20,14 @@
     <definedName name="D">Sheet1!$C$9</definedName>
     <definedName name="dt">Sheet1!$F$2</definedName>
     <definedName name="f">Sheet1!$C$10</definedName>
+    <definedName name="intrinsic">Sheet1!$C$13</definedName>
     <definedName name="k">Sheet1!$C$7</definedName>
     <definedName name="r_">Sheet1!$C$4</definedName>
     <definedName name="s">Sheet1!$C$11</definedName>
     <definedName name="S0">Sheet1!$C$5</definedName>
     <definedName name="sigma">Sheet1!$C$6</definedName>
     <definedName name="t">Sheet1!$C$8</definedName>
+    <definedName name="value">Sheet1!$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Hedging</t>
   </si>
@@ -118,6 +120,30 @@
   </si>
   <si>
     <t>B_t</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dM</t>
+  </si>
+  <si>
+    <t>dN</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>=BLACK.PUT.DELTA(H1, sigma*SQRT(t-E1), k)</t>
   </si>
 </sst>
 </file>
@@ -195,16 +221,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -521,15 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D6900C-C11D-4E92-A675-5AC210DF580E}">
-  <dimension ref="B2:J12"/>
+  <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -537,11 +575,18 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <f>1/20</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -560,32 +605,72 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4:E9">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
+        <f t="array" ref="E4:E29">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
         <v>0</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" aca="1" ref="F4:F9" ca="1">_xll.RANDOM.BROWNIAN(_xlfn.ANCHORARRAY(E4), 1, 0)</f>
+        <f t="array" aca="1" ref="F4:F29" ca="1">_xll.RANDOM.BROWNIAN(_xlfn.ANCHORARRAY(E4), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G4" cm="1">
-        <f t="array" ref="G4:G9">EXP(r_*_xlfn.ANCHORARRAY(E4))</f>
+        <f t="array" ref="G4:G29">EXP(r_*_xlfn.ANCHORARRAY(E4))</f>
         <v>1</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" aca="1" ref="H4:H9" ca="1">S0*EXP((r_-sigma^2)*t+_xlfn.ANCHORARRAY(F4))</f>
-        <v>101.51130646157189</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+        <f t="array" aca="1" ref="H4:H29" ca="1">S0*EXP((r_-sigma^2)*_xlfn.ANCHORARRAY(E4)+sigma*B_t)</f>
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <f ca="1">intrinsic-J4*H4</f>
+        <v>48.006119416162754</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">_xll.BLACK.PUT.DELTA(H4, sigma*SQRT(t-E4), k)</f>
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="K4">
+        <f ca="1">I4</f>
+        <v>48.006119416162754</v>
+      </c>
+      <c r="L4">
+        <f ca="1">J4</f>
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="M4">
+        <f ca="1">I4*G4+J4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f ca="1">-I4*G4-J4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="e" cm="1">
+        <f t="array" aca="1" ref="P4:P29" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),H4,_xlfn.LAMBDA(_xlpm._t,_xlpm._s,_xll.BLACK.PUT.DELTA(_xlpm._s,sigma*SQRT(_xlpm._t),k)))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,21 +678,49 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>6.7454946684755669E-4</v>
+        <v>0.18988564707404737</v>
       </c>
       <c r="G5">
-        <v>1.005012520859401</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>101.57980395910246</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+        <v>103.82920768538216</v>
+      </c>
+      <c r="I5">
+        <f ca="1">I4+K5</f>
+        <v>32.704215567643814</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">_xll.BLACK.PUT.DELTA(H5, sigma*SQRT(t-E5), k)</f>
+        <v>-0.33268547792881209</v>
+      </c>
+      <c r="K5">
+        <f ca="1">-L5*H5/G5</f>
+        <v>-15.30190384851894</v>
+      </c>
+      <c r="L5">
+        <f ca="1">J5-J4</f>
+        <v>0.14737571623281542</v>
+      </c>
+      <c r="M5">
+        <f ca="1">I5*G5+J5*H5</f>
+        <v>-1.8382540141374406</v>
+      </c>
+      <c r="N5">
+        <f ca="1">-K5*G5-L5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,21 +728,49 @@
         <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>-3.483967814473541E-2</v>
+        <v>5.7469709150181764E-2</v>
       </c>
       <c r="G6">
-        <v>1.0100501670841679</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>98.035583317433179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+        <v>101.07513263992949</v>
+      </c>
+      <c r="I6">
+        <f ca="1">I5+K6</f>
+        <v>43.213153991442539</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">_xll.BLACK.PUT.DELTA(H6, sigma*SQRT(t-E6), k)</f>
+        <v>-0.43665703007345102</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K9" ca="1" si="0">-L6*H6/G6</f>
+        <v>10.508938423798726</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L9" ca="1" si="1">J6-J5</f>
+        <v>-0.10397155214463893</v>
+      </c>
+      <c r="M6">
+        <f ca="1">I6*G6+J6*H6</f>
+        <v>-0.92201324138920171</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N9" ca="1" si="2">-K6*G6-L6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,21 +778,49 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0.15000000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>-2.9986379389510445E-2</v>
+        <v>1.5382883189438597E-2</v>
       </c>
       <c r="G7">
-        <v>1.0151130646157189</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>98.512535752046048</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+        <v>100.18783385097501</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I6:I9" ca="1" si="3">I6+K7</f>
+        <v>46.887064939119682</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">_xll.BLACK.PUT.DELTA(H7, sigma*SQRT(t-E7), k)</f>
+        <v>-0.47332726044435536</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.673910947677141</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.6670230370904333E-2</v>
+      </c>
+      <c r="M7">
+        <f ca="1">I7*G7+J7*H7</f>
+        <v>-0.53456798741656542</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,71 +828,536 @@
         <v>0.25</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>-8.674164567771539E-2</v>
+        <v>0.17691588323984675</v>
       </c>
       <c r="G8">
-        <v>1.0202013400267558</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>93.077133354788472</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+        <v>103.43603089431053</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.021691711071576</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">_xll.BLACK.PUT.DELTA(H8, sigma*SQRT(t-E8), k)</f>
+        <v>-0.33927945226602774</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.865373228048108</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13404780817832762</v>
+      </c>
+      <c r="M8">
+        <f ca="1">I8*G8+J8*H8</f>
+        <v>-2.0720281953220265</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>EXP(-r_*t)</f>
-        <v>0.97530991202833262</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
         <f ca="1"/>
-        <v>-0.21199132772824858</v>
+        <v>0.16963962535006616</v>
       </c>
       <c r="G9">
-        <v>1.0253151205244289</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>82.119775493186992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+        <v>103.24430893600076</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f ca="1">J8+L9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f ca="1">-SUM(K4:K8)</f>
+        <v>-33.021691711071576</v>
+      </c>
+      <c r="L9">
+        <f ca="1">-SUM(L4:L8)</f>
+        <v>0.33927945226602774</v>
+      </c>
+      <c r="M9">
+        <f ca="1">I9*G9+J9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.0069808743193178</v>
+      </c>
+      <c r="O9">
+        <f ca="1">MAX(k-H9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>S0/D</f>
-        <v>102.53151205244289</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="F10">
+        <f ca="1"/>
+        <v>0.27110706579641891</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f ca="1"/>
+        <v>105.31876402642153</v>
+      </c>
+      <c r="P10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>sigma*SQRT(t)</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11">
+        <f ca="1"/>
+        <v>0.45129248818141182</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f ca="1"/>
+        <v>109.13969679490782</v>
+      </c>
+      <c r="P11" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>2.8979094351555332</v>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="E12">
+        <v>0.08</v>
+      </c>
+      <c r="F12">
+        <f ca="1"/>
+        <v>0.41432899519206828</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f ca="1"/>
+        <v>108.29250925848481</v>
+      </c>
+      <c r="P12" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f>MAX(S0-k,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.09</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>0.3930983141616034</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f ca="1"/>
+        <v>107.79053453483225</v>
+      </c>
+      <c r="P13" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="F14">
+        <f ca="1"/>
+        <v>0.31273595129089338</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f ca="1"/>
+        <v>106.0295020109764</v>
+      </c>
+      <c r="P14" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="F15">
+        <f ca="1"/>
+        <v>0.38522885837965043</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f ca="1"/>
+        <v>107.53495501715929</v>
+      </c>
+      <c r="P15" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="F16">
+        <f ca="1"/>
+        <v>0.49386533637488716</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f ca="1"/>
+        <v>109.85301591080446</v>
+      </c>
+      <c r="P16" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="F17">
+        <f ca="1"/>
+        <v>0.58015465220971063</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f ca="1"/>
+        <v>111.72060053605763</v>
+      </c>
+      <c r="P17" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="F18">
+        <f ca="1"/>
+        <v>0.49083306319788395</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f ca="1"/>
+        <v>109.69862122737393</v>
+      </c>
+      <c r="P18" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.15</v>
+      </c>
+      <c r="F19">
+        <f ca="1"/>
+        <v>0.41222458033147347</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f ca="1"/>
+        <v>107.94427287477824</v>
+      </c>
+      <c r="P19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>0.16</v>
+      </c>
+      <c r="F20">
+        <f ca="1"/>
+        <v>0.30629358147860397</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f ca="1"/>
+        <v>105.63913532480835</v>
+      </c>
+      <c r="P20" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0.17</v>
+      </c>
+      <c r="F21">
+        <f ca="1"/>
+        <v>0.27556638022251684</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f ca="1"/>
+        <v>104.94993868465465</v>
+      </c>
+      <c r="P21" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F22">
+        <f ca="1"/>
+        <v>0.20242975541833086</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f ca="1"/>
+        <v>103.3846126397745</v>
+      </c>
+      <c r="P22" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="F23">
+        <f ca="1"/>
+        <v>0.29473861951750974</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f ca="1"/>
+        <v>105.26888747339625</v>
+      </c>
+      <c r="P23" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="F24">
+        <f ca="1"/>
+        <v>0.21542260586874093</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f ca="1"/>
+        <v>103.57072442922168</v>
+      </c>
+      <c r="P24" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="F25">
+        <f ca="1"/>
+        <v>0.33227752350643452</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f ca="1"/>
+        <v>105.9773816506974</v>
+      </c>
+      <c r="P25" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>0.22000000000000006</v>
+      </c>
+      <c r="F26">
+        <f ca="1"/>
+        <v>0.53667794251470913</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f ca="1"/>
+        <v>110.35536775188504</v>
+      </c>
+      <c r="P26" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>0.55158033178492805</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f ca="1"/>
+        <v>110.64050507148868</v>
+      </c>
+      <c r="P27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="F28">
+        <f ca="1"/>
+        <v>0.5283498156749914</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f ca="1"/>
+        <v>110.08360792430565</v>
+      </c>
+      <c r="P28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="F29">
+        <f ca="1"/>
+        <v>0.63700514057805258</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f ca="1"/>
+        <v>112.45703235916697</v>
+      </c>
+      <c r="P29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -5,29 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\Fall2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\Fall2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB5D69-D239-486F-9D98-0F91DD07695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03572301-2275-4BE0-8C3C-D7B3C816187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="710" windowWidth="16580" windowHeight="9260" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
+    <workbookView xWindow="2424" yWindow="1644" windowWidth="17280" windowHeight="9372" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$F$4)</definedName>
-    <definedName name="D">Sheet1!$C$9</definedName>
+    <definedName name="D">Sheet1!#REF!</definedName>
     <definedName name="dt">Sheet1!$F$2</definedName>
-    <definedName name="f">Sheet1!$C$10</definedName>
-    <definedName name="intrinsic">Sheet1!$C$13</definedName>
+    <definedName name="f">Sheet1!#REF!</definedName>
+    <definedName name="intrinsic">Sheet1!$C$10</definedName>
     <definedName name="k">Sheet1!$C$7</definedName>
     <definedName name="r_">Sheet1!$C$4</definedName>
-    <definedName name="s">Sheet1!$C$11</definedName>
+    <definedName name="s">Sheet1!#REF!</definedName>
     <definedName name="S0">Sheet1!$C$5</definedName>
     <definedName name="sigma">Sheet1!$C$6</definedName>
     <definedName name="t">Sheet1!$C$8</definedName>
-    <definedName name="value">Sheet1!$C$12</definedName>
+    <definedName name="value">Sheet1!$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Hedging</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>dt</t>
@@ -150,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +156,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,11 +167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,31 +194,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+  <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -554,71 +526,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D6900C-C11D-4E92-A675-5AC210DF580E}">
-  <dimension ref="B1:P29"/>
+  <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4:E29">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
+        <f t="array" ref="E4:E9">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
         <v>0</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" aca="1" ref="F4:F29" ca="1">_xll.RANDOM.BROWNIAN(_xlfn.ANCHORARRAY(E4), 1, 0)</f>
+        <f t="array" aca="1" ref="F4:F9" ca="1">_xll.RANDOM.BROWNIAN(_xlfn.ANCHORARRAY(E4), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G4" cm="1">
-        <f t="array" ref="G4:G29">EXP(r_*_xlfn.ANCHORARRAY(E4))</f>
+        <f t="array" ref="G4:G9">EXP(r_*_xlfn.ANCHORARRAY(E4))</f>
         <v>1</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" aca="1" ref="H4:H29" ca="1">S0*EXP((r_-sigma^2)*_xlfn.ANCHORARRAY(E4)+sigma*B_t)</f>
+        <f t="array" aca="1" ref="H4:H9" ca="1">S0*EXP((r_-sigma^2)*_xlfn.ANCHORARRAY(E4)+sigma*B_t)</f>
         <v>100</v>
       </c>
       <c r="I4">
@@ -658,19 +634,15 @@
         <v>-0.48006119416162751</v>
       </c>
       <c r="M4">
-        <f ca="1">I4*G4+J4*H4</f>
+        <f t="shared" ref="M4:M9" ca="1" si="0">I4*G4+J4*H4</f>
         <v>0</v>
       </c>
       <c r="N4">
         <f ca="1">-I4*G4-J4*H4</f>
         <v>0</v>
       </c>
-      <c r="P4" t="e" cm="1">
-        <f t="array" aca="1" ref="P4:P29" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),H4,_xlfn.LAMBDA(_xlpm._t,_xlpm._s,_xll.BLACK.PUT.DELTA(_xlpm._s,sigma*SQRT(_xlpm._t),k)))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,49 +650,45 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.18988564707404737</v>
+        <v>0.26264131709631244</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>103.82920768538216</v>
+        <v>105.1826591150834</v>
       </c>
       <c r="I5">
         <f ca="1">I4+K5</f>
-        <v>32.704215567643814</v>
+        <v>26.021624994108571</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xll.BLACK.PUT.DELTA(H5, sigma*SQRT(t-E5), k)</f>
-        <v>-0.33268547792881209</v>
+        <v>-0.2710486572376436</v>
       </c>
       <c r="K5">
         <f ca="1">-L5*H5/G5</f>
-        <v>-15.30190384851894</v>
+        <v>-21.984494422054183</v>
       </c>
       <c r="L5">
         <f ca="1">J5-J4</f>
-        <v>0.14737571623281542</v>
+        <v>0.20901253692398392</v>
       </c>
       <c r="M5">
-        <f ca="1">I5*G5+J5*H5</f>
-        <v>-1.8382540141374406</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4879935237195774</v>
       </c>
       <c r="N5">
         <f ca="1">-K5*G5-L5*H5</f>
         <v>0</v>
       </c>
-      <c r="P5" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,49 +696,45 @@
         <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>5.7469709150181764E-2</v>
+        <v>2.797878782609281E-2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>101.07513263992949</v>
+        <v>100.15970314638429</v>
       </c>
       <c r="I6">
         <f ca="1">I5+K6</f>
-        <v>43.213153991442539</v>
+        <v>46.583970123927827</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">_xll.BLACK.PUT.DELTA(H6, sigma*SQRT(t-E6), k)</f>
-        <v>-0.43665703007345102</v>
+        <v>-0.47634424502275519</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K9" ca="1" si="0">-L6*H6/G6</f>
-        <v>10.508938423798726</v>
+        <f t="shared" ref="K6:K8" ca="1" si="1">-L6*H6/G6</f>
+        <v>20.562345129819253</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L9" ca="1" si="1">J6-J5</f>
-        <v>-0.10397155214463893</v>
+        <f t="shared" ref="L6:L8" ca="1" si="2">J6-J5</f>
+        <v>-0.20529558778511159</v>
       </c>
       <c r="M6">
-        <f ca="1">I6*G6+J6*H6</f>
-        <v>-0.92201324138920171</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1265280530398769</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N9" ca="1" si="2">-K6*G6-L6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N6:N9" ca="1" si="3">-K6*G6-L6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,49 +742,45 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>1.5382883189438597E-2</v>
+        <v>-0.11183717083434105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>100.18783385097501</v>
+        <v>97.203114372381975</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I6:I9" ca="1" si="3">I6+K7</f>
-        <v>46.887064939119682</v>
+        <f t="shared" ref="I7:I9" ca="1" si="4">I6+K7</f>
+        <v>64.593965101045214</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">_xll.BLACK.PUT.DELTA(H7, sigma*SQRT(t-E7), k)</f>
-        <v>-0.47332726044435536</v>
+        <v>-0.66162632259201581</v>
       </c>
       <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.00999497711739</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.18528207756926063</v>
+      </c>
+      <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.673910947677141</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.6670230370904333E-2</v>
-      </c>
-      <c r="M7">
-        <f ca="1">I7*G7+J7*H7</f>
-        <v>-0.53456798741656542</v>
+        <v>0.28182599435500322</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,72 +788,68 @@
         <v>0.25</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>0.17691588323984675</v>
+        <v>-0.29722532872420193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>103.43603089431053</v>
+        <v>93.477907059756021</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="3"/>
-        <v>33.021691711071576</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89.805139113003506</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">_xll.BLACK.PUT.DELTA(H8, sigma*SQRT(t-E8), k)</f>
-        <v>-0.33927945226602774</v>
+        <v>-0.93132827468901747</v>
       </c>
       <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.211174011958292</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.26970195209700165</v>
+      </c>
+      <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.865373228048108</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13404780817832762</v>
-      </c>
-      <c r="M8">
-        <f ca="1">I8*G8+J8*H8</f>
-        <v>-2.0720281953220265</v>
+        <v>2.7465212095005995</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <f>EXP(-r_*t)</f>
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9">_xll.BSM.PUT.VALUE(r_, S0, sigma, k, t)</f>
+        <v>3.987761167674492</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
         <f ca="1"/>
-        <v>0.16963962535006616</v>
+        <v>-0.49594629778956145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>103.24430893600076</v>
+        <v>89.656071875491421</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -902,455 +858,32 @@
       </c>
       <c r="K9">
         <f ca="1">-SUM(K4:K8)</f>
-        <v>-33.021691711071576</v>
+        <v>-89.805139113003506</v>
       </c>
       <c r="L9">
         <f ca="1">-SUM(L4:L8)</f>
-        <v>0.33927945226602774</v>
+        <v>0.93132827468901747</v>
       </c>
       <c r="M9">
-        <f ca="1">I9*G9+J9*H9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.0069808743193178</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3059043778075363</v>
       </c>
       <c r="O9">
         <f ca="1">MAX(k-H9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+        <v>10.343928124508579</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <f>S0/D</f>
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="F10">
-        <f ca="1"/>
-        <v>0.27110706579641891</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f ca="1"/>
-        <v>105.31876402642153</v>
-      </c>
-      <c r="P10" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <f>sigma*SQRT(t)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11">
-        <f ca="1"/>
-        <v>0.45129248818141182</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <f ca="1"/>
-        <v>109.13969679490782</v>
-      </c>
-      <c r="P11" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" cm="1">
-        <f t="array" ref="C12">_xll.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>3.987761167674492</v>
-      </c>
-      <c r="E12">
-        <v>0.08</v>
-      </c>
-      <c r="F12">
-        <f ca="1"/>
-        <v>0.41432899519206828</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f ca="1"/>
-        <v>108.29250925848481</v>
-      </c>
-      <c r="P12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <f>MAX(S0-k,0)</f>
         <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.09</v>
-      </c>
-      <c r="F13">
-        <f ca="1"/>
-        <v>0.3930983141616034</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f ca="1"/>
-        <v>107.79053453483225</v>
-      </c>
-      <c r="P13" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E14">
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="F14">
-        <f ca="1"/>
-        <v>0.31273595129089338</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f ca="1"/>
-        <v>106.0295020109764</v>
-      </c>
-      <c r="P14" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E15">
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="F15">
-        <f ca="1"/>
-        <v>0.38522885837965043</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f ca="1"/>
-        <v>107.53495501715929</v>
-      </c>
-      <c r="P15" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="E16">
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="F16">
-        <f ca="1"/>
-        <v>0.49386533637488716</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f ca="1"/>
-        <v>109.85301591080446</v>
-      </c>
-      <c r="P16" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E17">
-        <v>0.12999999999999998</v>
-      </c>
-      <c r="F17">
-        <f ca="1"/>
-        <v>0.58015465220971063</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f ca="1"/>
-        <v>111.72060053605763</v>
-      </c>
-      <c r="P17" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E18">
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="F18">
-        <f ca="1"/>
-        <v>0.49083306319788395</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f ca="1"/>
-        <v>109.69862122737393</v>
-      </c>
-      <c r="P18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E19">
-        <v>0.15</v>
-      </c>
-      <c r="F19">
-        <f ca="1"/>
-        <v>0.41222458033147347</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f ca="1"/>
-        <v>107.94427287477824</v>
-      </c>
-      <c r="P19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E20">
-        <v>0.16</v>
-      </c>
-      <c r="F20">
-        <f ca="1"/>
-        <v>0.30629358147860397</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f ca="1"/>
-        <v>105.63913532480835</v>
-      </c>
-      <c r="P20" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E21">
-        <v>0.17</v>
-      </c>
-      <c r="F21">
-        <f ca="1"/>
-        <v>0.27556638022251684</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f ca="1"/>
-        <v>104.94993868465465</v>
-      </c>
-      <c r="P21" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E22">
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="F22">
-        <f ca="1"/>
-        <v>0.20242975541833086</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f ca="1"/>
-        <v>103.3846126397745</v>
-      </c>
-      <c r="P22" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E23">
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="F23">
-        <f ca="1"/>
-        <v>0.29473861951750974</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f ca="1"/>
-        <v>105.26888747339625</v>
-      </c>
-      <c r="P23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E24">
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="F24">
-        <f ca="1"/>
-        <v>0.21542260586874093</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f ca="1"/>
-        <v>103.57072442922168</v>
-      </c>
-      <c r="P24" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E25">
-        <v>0.21000000000000005</v>
-      </c>
-      <c r="F25">
-        <f ca="1"/>
-        <v>0.33227752350643452</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f ca="1"/>
-        <v>105.9773816506974</v>
-      </c>
-      <c r="P25" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E26">
-        <v>0.22000000000000006</v>
-      </c>
-      <c r="F26">
-        <f ca="1"/>
-        <v>0.53667794251470913</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f ca="1"/>
-        <v>110.35536775188504</v>
-      </c>
-      <c r="P26" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E27">
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="F27">
-        <f ca="1"/>
-        <v>0.55158033178492805</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f ca="1"/>
-        <v>110.64050507148868</v>
-      </c>
-      <c r="P27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E28">
-        <v>0.24000000000000007</v>
-      </c>
-      <c r="F28">
-        <f ca="1"/>
-        <v>0.5283498156749914</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f ca="1"/>
-        <v>110.08360792430565</v>
-      </c>
-      <c r="P28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E29">
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="F29">
-        <f ca="1"/>
-        <v>0.63700514057805258</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f ca="1"/>
-        <v>112.45703235916697</v>
-      </c>
-      <c r="P29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -5,29 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\Fall2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\Fall2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03572301-2275-4BE0-8C3C-D7B3C816187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3810571-D529-4BE4-8BA8-E0B696E60295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="1644" windowWidth="17280" windowHeight="9372" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
+    <workbookView xWindow="2790" yWindow="4590" windowWidth="30240" windowHeight="15345" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_t">_xlfn.ANCHORARRAY(Sheet1!$E$4)</definedName>
+    <definedName name="A_t">_xlfn.ANCHORARRAY(Sheet1!$N$4)</definedName>
     <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$F$4)</definedName>
-    <definedName name="D">Sheet1!#REF!</definedName>
-    <definedName name="dt">Sheet1!$F$2</definedName>
-    <definedName name="f">Sheet1!#REF!</definedName>
-    <definedName name="intrinsic">Sheet1!$C$10</definedName>
+    <definedName name="dM_t">_xlfn.ANCHORARRAY(Sheet1!$K$4)</definedName>
+    <definedName name="dN_t">_xlfn.ANCHORARRAY(Sheet1!$W$4)</definedName>
+    <definedName name="dt">Sheet1!$C$9</definedName>
+    <definedName name="error">Sheet1!$C$13</definedName>
+    <definedName name="hedge">Sheet1!$C$12</definedName>
     <definedName name="k">Sheet1!$C$7</definedName>
+    <definedName name="M_t">_xlfn.ANCHORARRAY(Sheet1!$I$4)</definedName>
+    <definedName name="N_t">_xlfn.ANCHORARRAY(Sheet1!$S$4)</definedName>
+    <definedName name="payoff">Sheet1!$C$11</definedName>
     <definedName name="r_">Sheet1!$C$4</definedName>
-    <definedName name="s">Sheet1!#REF!</definedName>
+    <definedName name="R_t">_xlfn.ANCHORARRAY(Sheet1!$G$4)</definedName>
+    <definedName name="S_t">_xlfn.ANCHORARRAY(Sheet1!$H$4)</definedName>
     <definedName name="S0">Sheet1!$C$5</definedName>
     <definedName name="sigma">Sheet1!$C$6</definedName>
     <definedName name="t">Sheet1!$C$8</definedName>
-    <definedName name="value">Sheet1!$C$9</definedName>
+    <definedName name="V_t">_xlfn.ANCHORARRAY(Sheet1!$M$4)</definedName>
+    <definedName name="value">Sheet1!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Hedging</t>
   </si>
@@ -95,55 +103,80 @@
     <t>value</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>B_t</t>
   </si>
   <si>
-    <t>intrinsic</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>dM</t>
-  </si>
-  <si>
-    <t>dN</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
     <t>Gamma</t>
   </si>
   <si>
-    <t>=BLACK.PUT.DELTA(H1, sigma*SQRT(t-E1), k)</t>
+    <t>R_t</t>
+  </si>
+  <si>
+    <t>S_t</t>
+  </si>
+  <si>
+    <t>M_t</t>
+  </si>
+  <si>
+    <t>N_t</t>
+  </si>
+  <si>
+    <t>dM_t</t>
+  </si>
+  <si>
+    <t>dN_t</t>
+  </si>
+  <si>
+    <t>V_t</t>
+  </si>
+  <si>
+    <t>A_t</t>
+  </si>
+  <si>
+    <t>_t</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>0 = dM R + dN S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,8 +189,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +225,18 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -193,28 +259,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,370 +669,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D6900C-C11D-4E92-A675-5AC210DF580E}">
-  <dimension ref="B1:O10"/>
+  <dimension ref="B1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" cm="1">
+        <f t="array" ref="E4:E9">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" cm="1">
+        <f t="array" aca="1" ref="F4:F9" ca="1">_xll.RANDOM.BROWNIAN(_t, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" cm="1">
+        <f t="array" ref="G4:G9">EXP(r_*_t)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" cm="1">
+        <f t="array" aca="1" ref="H4:H9" ca="1">S0*EXP((r_-sigma^2/2)*_t + sigma*B_t)</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <f ca="1">value-J4*H4</f>
+        <v>56.501596806671358</v>
+      </c>
+      <c r="J4" s="2" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">_xll.BSM.PUT.DELTA(r_, H4, sigma, k, t - E4)</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="K4" s="2">
+        <f ca="1">I4</f>
+        <v>56.501596806671358</v>
+      </c>
+      <c r="L4" s="2">
+        <f ca="1">J4</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M9" ca="1" si="0">I4*G4+J4*H4</f>
+        <v>4.5275068370385512</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">-I4*G4-J4*H4</f>
+        <v>-4.5275068370385512</v>
+      </c>
+      <c r="P4" s="2" cm="1">
+        <f t="array" aca="1" ref="P4:P9" ca="1">_xlfn.MAP(_t,S_t,_xlfn.LAMBDA(_xlpm.t_,_xlpm.S_,_xll.BSM.PUT.DELTA(r_,_xlpm.S_,sigma,k,t-_xlpm.t_)))</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="Q4" s="2" cm="1">
+        <f t="array" aca="1" ref="Q4:Q8" ca="1">_xlfn.DROP(_xlfn.ANCHORARRAY(P4),-1)</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="R4" s="2" cm="1">
+        <f t="array" aca="1" ref="R4:R9" ca="1">_xlfn.VSTACK(_xlfn.ANCHORARRAY(Q4),0)</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="S4" s="2" cm="1">
+        <f t="array" aca="1" ref="S4:S9" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(_t,S_t,_xlfn.LAMBDA(_xlpm.t_,_xlpm.S_,_xll.BSM.PUT.DELTA(r_,_xlpm.S_,sigma,k,t-_xlpm.t_))),-1),0)</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">R4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" cm="1">
+        <f t="array" aca="1" ref="U4:U9" ca="1">_xlfn.VSTACK(0,_xlfn.DROP(N_t,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" cm="1">
+        <f t="array" aca="1" ref="V4:V9" ca="1">N_t-_xlfn.ANCHORARRAY(T4)</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="W4" s="2" cm="1">
+        <f t="array" aca="1" ref="W4:W9" ca="1">N_t-_xlfn.VSTACK(0,_xlfn.DROP(N_t,-1))</f>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="X4" s="1">
+        <f ca="1">W4-L4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" cm="1">
+        <f t="array" aca="1" ref="Y4" ca="1">value-_xlfn.TAKE(N_t,1)*_xlfn.TAKE(S_t,1)</f>
+        <v>56.501596806671358</v>
+      </c>
+      <c r="Z4" s="2" cm="1">
+        <f t="array" aca="1" ref="Z4:Z9" ca="1">-dN_t*S_t/R_t</f>
+        <v>51.974089969632807</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <f ca="1"/>
+        <v>-0.11295608706985508</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f ca="1"/>
+        <v>97.668487993639758</v>
+      </c>
+      <c r="I5" s="2">
+        <f ca="1">I4+K5</f>
+        <v>67.212569525224993</v>
+      </c>
+      <c r="J5" s="2" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">_xll.BSM.PUT.DELTA(r_, H5, sigma, k, t - E5)</f>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="K5" s="2">
+        <f ca="1">-L5*H5/G5</f>
+        <v>10.710972718553634</v>
+      </c>
+      <c r="L5" s="2">
+        <f ca="1">J5-J4</f>
+        <v>-0.10966661754046136</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7392889848770139</v>
+      </c>
+      <c r="N5" s="2">
+        <f ca="1">-K5*G5-L5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="Q5" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="R5" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="S5" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">R5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <f ca="1"/>
+        <v>-0.51974089969632808</v>
+      </c>
+      <c r="V5" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="W5" s="2">
+        <f ca="1"/>
+        <v>-0.10966661754046136</v>
+      </c>
+      <c r="X5" s="1">
+        <f ca="1">W5-L5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <f ca="1"/>
+        <v>10.710972718553634</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="2">
+        <f ca="1"/>
+        <v>0.14331835632025305</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <f ca="1"/>
+        <v>102.70223275489086</v>
+      </c>
+      <c r="I6" s="2">
+        <f ca="1">I5+K6</f>
+        <v>43.606241227132898</v>
+      </c>
+      <c r="J6" s="2" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">_xll.BSM.PUT.DELTA(r_, H6, sigma, k, t - E6)</f>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K8" ca="1" si="1">-L6*H6/G6</f>
+        <v>-23.606328298092091</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L8" ca="1" si="2">J6-J5</f>
+        <v>0.22985214308272101</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5710121922942548</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N9" ca="1" si="3">-K6*G6-L6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="Q6" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="R6" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="S6" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">R6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <f ca="1"/>
+        <v>-0.62940751723678945</v>
+      </c>
+      <c r="V6" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="W6" s="2">
+        <f ca="1"/>
+        <v>0.22985214308272101</v>
+      </c>
+      <c r="X6" s="1">
+        <f ca="1">W6-L6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <f ca="1"/>
+        <v>-23.606328298092091</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <f ca="1"/>
+        <v>0.46910021025315263</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <f ca="1"/>
+        <v>109.5071920628276</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I9" ca="1" si="4">I6+K7</f>
+        <v>10.260678697702559</v>
+      </c>
+      <c r="J7" s="2" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">_xll.BSM.PUT.DELTA(r_, H7, sigma, k, t - E7)</f>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-33.345562529430339</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30450568498093694</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.1479458700916183</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">R7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f ca="1"/>
+        <v>-0.39955537415406844</v>
+      </c>
+      <c r="V7" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <f ca="1"/>
+        <v>0.30450568498093694</v>
+      </c>
+      <c r="X7" s="1">
+        <f ca="1">W7-L7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <f ca="1"/>
+        <v>-33.345562529430339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <f ca="1"/>
+        <v>0.6920090023931027</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f ca="1"/>
+        <v>114.38523277359349</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.3239892291942752</v>
+      </c>
+      <c r="J8" s="2" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">_xll.BSM.PUT.DELTA(r_, H8, sigma, k, t - E8)</f>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10.584667926896834</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2535265875162587E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.61160212342379716</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="Q8" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="S8" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="T8" s="7">
+        <f ca="1">R8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f ca="1"/>
+        <v>-9.5049689173131516E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="W8" s="2">
+        <f ca="1"/>
+        <v>9.2535265875162587E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <f ca="1">W8-L8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f ca="1"/>
+        <v>-10.584667926896834</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" cm="1">
-        <f t="array" ref="E4:E9">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" cm="1">
-        <f t="array" aca="1" ref="F4:F9" ca="1">_xll.RANDOM.BROWNIAN(_xlfn.ANCHORARRAY(E4), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4:G9">EXP(r_*_xlfn.ANCHORARRAY(E4))</f>
+      <c r="E9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="2">
+        <f ca="1"/>
+        <v>0.83677024899043673</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H4" cm="1">
-        <f t="array" aca="1" ref="H4:H9" ca="1">S0*EXP((r_-sigma^2)*_xlfn.ANCHORARRAY(E4)+sigma*B_t)</f>
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <f ca="1">intrinsic-J4*H4</f>
-        <v>48.006119416162754</v>
-      </c>
-      <c r="J4" cm="1">
-        <f t="array" aca="1" ref="J4" ca="1">_xll.BLACK.PUT.DELTA(H4, sigma*SQRT(t-E4), k)</f>
-        <v>-0.48006119416162751</v>
-      </c>
-      <c r="K4">
-        <f ca="1">I4</f>
-        <v>48.006119416162754</v>
-      </c>
-      <c r="L4">
-        <f ca="1">J4</f>
-        <v>-0.48006119416162751</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M9" ca="1" si="0">I4*G4+J4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f ca="1">-I4*G4-J4*H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>0.05</v>
-      </c>
-      <c r="F5">
-        <f ca="1"/>
-        <v>0.26264131709631244</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f ca="1"/>
-        <v>105.1826591150834</v>
-      </c>
-      <c r="I5">
-        <f ca="1">I4+K5</f>
-        <v>26.021624994108571</v>
-      </c>
-      <c r="J5" cm="1">
-        <f t="array" aca="1" ref="J5" ca="1">_xll.BLACK.PUT.DELTA(H5, sigma*SQRT(t-E5), k)</f>
-        <v>-0.2710486572376436</v>
-      </c>
-      <c r="K5">
-        <f ca="1">-L5*H5/G5</f>
-        <v>-21.984494422054183</v>
-      </c>
-      <c r="L5">
-        <f ca="1">J5-J4</f>
-        <v>0.20901253692398392</v>
-      </c>
-      <c r="M5">
+      <c r="H9" s="2">
+        <f ca="1"/>
+        <v>117.62766281084977</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f ca="1">-1*SUM(K4:K8)</f>
+        <v>0.3239892291942752</v>
+      </c>
+      <c r="L9" s="2">
+        <f ca="1">-1*SUM(L4:L8)</f>
+        <v>2.5144232979689152E-3</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4879935237195774</v>
-      </c>
-      <c r="N5">
-        <f ca="1">-K5*G5-L5*H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-      <c r="F6">
-        <f ca="1"/>
-        <v>2.797878782609281E-2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f ca="1"/>
-        <v>100.15970314638429</v>
-      </c>
-      <c r="I6">
-        <f ca="1">I5+K6</f>
-        <v>46.583970123927827</v>
-      </c>
-      <c r="J6" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">_xll.BLACK.PUT.DELTA(H6, sigma*SQRT(t-E6), k)</f>
-        <v>-0.47634424502275519</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K8" ca="1" si="1">-L6*H6/G6</f>
-        <v>20.562345129819253</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L8" ca="1" si="2">J6-J5</f>
-        <v>-0.20529558778511159</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1265280530398769</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N9" ca="1" si="3">-K6*G6-L6*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F7">
-        <f ca="1"/>
-        <v>-0.11183717083434105</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f ca="1"/>
-        <v>97.203114372381975</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I9" ca="1" si="4">I6+K7</f>
-        <v>64.593965101045214</v>
-      </c>
-      <c r="J7" cm="1">
-        <f t="array" aca="1" ref="J7" ca="1">_xll.BLACK.PUT.DELTA(H7, sigma*SQRT(t-E7), k)</f>
-        <v>-0.66162632259201581</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.00999497711739</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.18528207756926063</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28182599435500322</v>
-      </c>
-      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <f ca="1"/>
-        <v>-0.29722532872420193</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f ca="1"/>
-        <v>93.477907059756021</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="4"/>
-        <v>89.805139113003506</v>
-      </c>
-      <c r="J8" cm="1">
-        <f t="array" aca="1" ref="J8" ca="1">_xll.BLACK.PUT.DELTA(H8, sigma*SQRT(t-E8), k)</f>
-        <v>-0.93132827468901747</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.211174011958292</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.26970195209700165</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7465212095005995</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+        <v>-0.61975496505150751</v>
+      </c>
+      <c r="P9" s="2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <f ca="1">R9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <f ca="1"/>
+        <v>-2.5144232979689238E-3</v>
+      </c>
+      <c r="V9" s="2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <f ca="1"/>
+        <v>2.5144232979689238E-3</v>
+      </c>
+      <c r="X9" s="1">
+        <f ca="1">W9-L9</f>
+        <v>8.6736173798840355E-18</v>
+      </c>
+      <c r="Z9" s="2">
+        <f ca="1"/>
+        <v>-0.29576573585723342</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">_xll.BSM.PUT.VALUE(r_, S0, sigma, k, t)</f>
-        <v>3.987761167674492</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <f ca="1"/>
-        <v>-0.49594629778956145</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f ca="1"/>
-        <v>89.656071875491421</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f ca="1">J8+L9</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f ca="1">-SUM(K4:K8)</f>
-        <v>-89.805139113003506</v>
-      </c>
-      <c r="L9">
-        <f ca="1">-SUM(L4:L8)</f>
-        <v>0.93132827468901747</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3059043778075363</v>
-      </c>
-      <c r="O9">
+      <c r="C10" s="2" cm="1">
+        <f t="array" ref="C10">_xll.BSM.PUT.VALUE(r_, S0, sigma, k, t)</f>
+        <v>4.5275068370385512</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
         <f ca="1">MAX(k-H9,0)</f>
-        <v>10.343928124508579</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <f>MAX(S0-k,0)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <f ca="1">N9</f>
+        <v>-0.61975496505150751</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1">payoff-hedge</f>
+        <v>0.61975496505150751</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="array" aca="1" ref="C14:C15" ca="1">_xll.MONTE.STDEV(error)</f>
+        <v>6.041668327839784E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <f ca="1"/>
+        <v>1.4658739719648295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
